--- a/data.xlsx
+++ b/data.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 2</t>
   </si>
 </sst>
 </file>
@@ -120,10 +123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -134,6 +137,9 @@
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
